--- a/DOC/Nuovi_comandi_CPU_GPU.xlsx
+++ b/DOC/Nuovi_comandi_CPU_GPU.xlsx
@@ -111,10 +111,6 @@
     <t>Extended Configuration Info</t>
   </si>
   <si>
-    <t># c [len] [ck]
-# c [len] [msg_ver] [machine_type] [machine_model] [ck]</t>
-  </si>
-  <si>
     <t>Reset counter</t>
   </si>
   <si>
@@ -131,13 +127,6 @@
 [what] = 0x02 =&gt; [coffee_brewer_dec]
 [what] = 0x03 =&gt; [coffee_ground_dec]
 Se la CPU ha dei problemi in scrittura, nella risposta imposta [what] = 0xFF per segnalare il fallimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La GPU richiede informazioni addizionali sulla configurazione della CPU.
-[msg_ver] = 1  =&gt; versione attuale del messaggio (in futuro potrebbe variare mano mano che agigungiamo parametri)
-[machine_type] = 0x00 se instant, 0x01 oppure 0x02 se Espresso
-[machine_model] = un numero (byte) che indica il modello della macchina (vedi codice CPU per dettagli)
-</t>
   </si>
   <si>
     <t># R [len] [numero_selezione] [prezzo LSB MSB] [Ricetta da 100 byte] [ck]</t>
@@ -166,6 +155,18 @@
 Se dec_number == 11 allora è il water filter decounter
 Se dec_number == 12 allora è il coffee brewer decounter
 Se dec_number == 13 allora è il coffee ground decounter</t>
+  </si>
+  <si>
+    <t># c [len] [ck]
+# c [len] [msg_ver] [machine_type] [machine_model] [bollitore_induzione] [ck]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La GPU richiede informazioni addizionali sulla configurazione della CPU.
+[msg_ver] = 2  =&gt; versione attuale del messaggio (in futuro potrebbe variare mano mano che agigungiamo parametri)
+[machine_type] = 0x00 se instant, 0x01 oppure 0x02 se Espresso
+[machine_model] = un numero (byte) che indica il modello della macchina (vedi codice CPU per dettagli)
+[bollitore_induzione] = un numero (byte) che indica se bollitore==0 oppure induzione==1
+</t>
   </si>
 </sst>
 </file>
@@ -535,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="7" t="s">
@@ -659,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
@@ -692,29 +693,29 @@
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Nuovi_comandi_CPU_GPU.xlsx
+++ b/DOC/Nuovi_comandi_CPU_GPU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Cleaning</t>
   </si>
@@ -167,6 +167,118 @@
 [machine_model] = un numero (byte) che indica il modello della macchina (vedi codice CPU per dettagli)
 [bollitore_induzione] = un numero (byte) che indica se bollitore==0 oppure induzione==1
 </t>
+  </si>
+  <si>
+    <t>Get Time</t>
+  </si>
+  <si>
+    <t>La GPU richiede l'ora di sistema alla CPU</t>
+  </si>
+  <si>
+    <t>Get Date</t>
+  </si>
+  <si>
+    <t>La GPU richiede la data di sistema alla CPU</t>
+  </si>
+  <si>
+    <t>Set Time</t>
+  </si>
+  <si>
+    <t># P [len] 0x07 [ck]
+# P [len] 0x07 [hour] [minute] [second] [ck]</t>
+  </si>
+  <si>
+    <t># P [len] 0x08 [ck]
+# P [len] 0x08 [year] [month] [day] [ck]</t>
+  </si>
+  <si>
+    <t># P [len] 0x09 [hour] [minute] [second] [ck]
+# P [len] 0x09 [hour] [minute] [second] [ck]</t>
+  </si>
+  <si>
+    <t>La GPU forza la CPU ad impostare la data di sistema secondo nuovi valori</t>
+  </si>
+  <si>
+    <t># P [len] 0x0A [year] [month] [day] [ck]
+# P [len] 0x0A [year] [month] [day] [ck]</t>
+  </si>
+  <si>
+    <t>La GPU forza la CPU ad impostare l'ora di sistema secondo nuovi valori</t>
+  </si>
+  <si>
+    <t>Set Date</t>
+  </si>
+  <si>
+    <t>Stato gruppo</t>
+  </si>
+  <si>
+    <t># P [len] 0x0B [ck]
+# P [len] 0x0B [stato] [ck]</t>
+  </si>
+  <si>
+    <t>GPU chiede alla CPU se il gruppo è inserito oppure no.
+CPU risponde con [stato] dove:
+[stato] == 0 significa gruppo NON inserito
+[stato] == 1 gruppo inserito</t>
+  </si>
+  <si>
+    <t>Attivazione motore</t>
+  </si>
+  <si>
+    <t>Stato calcolo impulsi</t>
+  </si>
+  <si>
+    <t>Set fattore calibrazione</t>
+  </si>
+  <si>
+    <t>Calcola impulsi</t>
+  </si>
+  <si>
+    <t># P [len] 0x0C [motore_1_12] [durata_dSec] [numero_ripetizioni] [pausa_dSec tra una ripetizione e l'altra][ck]
+# P [len] 0x0C [motore_1_12] [durata_dSec] [numero_ripetizioni] [pausa_dSec] [ck]</t>
+  </si>
+  <si>
+    <t># P [len] 0x0F [motore_1_12] [valore dGr 16 bit LSB MSB][ck]
+# P [len] 0x0F [motore_1_12] [valore] [ck]</t>
+  </si>
+  <si>
+    <t>GPU chiede alla CPU di attivare il motore i-esimo per il tempo [durata]. Eventualmente la stessa attivazione s'ha da ripetersi 
+motore_1_12 &gt;= 1 &amp;&amp; motore_1_12 &lt;=10 ==&gt; motore prodotto
+motore_1_12 = 11 ==&gt; macina 1
+motore_1_12 = 12 ==&gt; macina 2
+[numero_ripetizioni] volte. [numero ripetizioni] vale come minimo 1.
+Nel caso di [numero_ripetizioni] &gt; 1, la pausa in dSec tra una e l'altra è [pausa_dSec]
+Generalmente motore 1 = macina.</t>
+  </si>
+  <si>
+    <t>motore_1_12 &gt;= 1 &amp;&amp; motore_1_12 &lt;=10 ==&gt; motore prodotto
+motore_1_12 = 11 ==&gt; macina 1
+motore_1_12 = 12 ==&gt; macina 2</t>
+  </si>
+  <si>
+    <t>GPU chiede a CPU di avviare la procedura di calcolo degli impulsi. A seguire, GPU pollerà la CPU con il comando 0x0E per
+lo stato di avanzamento dell'operazione.
+[macina] == 11 per macina 1
+[macina] == 12 per macina 2</t>
+  </si>
+  <si>
+    <t># P [len] 0x0E [ck]
+# P [len] 0x0E [stato] [impulsi_calcolati LSB MSB] [ck]</t>
+  </si>
+  <si>
+    <t># P [len] 0x0D [macina] [totale_grammi_pesati_durante_attivazione_motore dgrams LSB MSB] [ck]
+# P [len] 0x0D [macina] [totale_grammi_pesati_durante_attivazione_motore dgrams LSB MSB] [ck]</t>
+  </si>
+  <si>
+    <t>CPU risponde con [impulsi_calcolat] &lt;&gt; 0 fintanto che sta facendo i suo calcoli.
+Possibili valori di [stato]:
+#define IMP_STEP_STOPPED 0 // Health Cleaning is stopped
+#define IMP_STEP_STARTED 1 // Health Cleaning is started
+#define IMP_STEP_POSIZBRW 2 // brewer placed
+#define IMP_STEP_GRINDER 3 // grinding
+#define IMP_STEP_TABLET  4 // tablet for impulses computation
+#define IMP_STEP_POSIZBRW2 5 // brewer placed again
+Quando ha finito, ritorna un valore di [impulsi_calcolati LSB MSB] &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -534,17 +646,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="111.5703125" style="4" customWidth="1"/>
   </cols>
@@ -632,113 +744,216 @@
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Nuovi_comandi_CPU_GPU.xlsx
+++ b/DOC/Nuovi_comandi_CPU_GPU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Cleaning</t>
   </si>
@@ -256,6 +256,10 @@
 motore_1_12 = 12 ==&gt; macina 2</t>
   </si>
   <si>
+    <t># P [len] 0x0D [macina] [ck]
+# P [len] 0x0D [macina] [ck]</t>
+  </si>
+  <si>
     <t>GPU chiede a CPU di avviare la procedura di calcolo degli impulsi. A seguire, GPU pollerà la CPU con il comando 0x0E per
 lo stato di avanzamento dell'operazione.
 [macina] == 11 per macina 1
@@ -266,11 +270,7 @@
 # P [len] 0x0E [stato] [impulsi_calcolati LSB MSB] [ck]</t>
   </si>
   <si>
-    <t># P [len] 0x0D [macina] [totale_grammi_pesati_durante_attivazione_motore dgrams LSB MSB] [ck]
-# P [len] 0x0D [macina] [totale_grammi_pesati_durante_attivazione_motore dgrams LSB MSB] [ck]</t>
-  </si>
-  <si>
-    <t>CPU risponde con [impulsi_calcolat] &lt;&gt; 0 fintanto che sta facendo i suo calcoli.
+    <t>CPU risponde con [stato] &lt;&gt; 0 fintanto che sta facendo i suo calcoli.
 Possibili valori di [stato]:
 #define IMP_STEP_STOPPED 0 // Health Cleaning is stopped
 #define IMP_STEP_STARTED 1 // Health Cleaning is started
@@ -279,6 +279,33 @@
 #define IMP_STEP_TABLET  4 // tablet for impulses computation
 #define IMP_STEP_POSIZBRW2 5 // brewer placed again
 Quando ha finito, ritorna un valore di [impulsi_calcolati LSB MSB] &gt; 0</t>
+  </si>
+  <si>
+    <t>Read posizione macina</t>
+  </si>
+  <si>
+    <t>GPU chiede a CPU la posizione della macina.
+[macina] == 11 per macina 1
+[macina] == 12 per macina 2</t>
+  </si>
+  <si>
+    <t># P [len] 0x10 [macina][ck]
+# P [len] 0x10 [macina] [posizione 16 bit LSB MSB] [ck]</t>
+  </si>
+  <si>
+    <t>Movimento macina</t>
+  </si>
+  <si>
+    <t>GPU chiede a CPU la aprire/chiudere/fermare la macina.
+[movimento]==0 spengimento
+[movimento]==1 accensione in apertura
+[movimento]==2 accensione in chiusura
+[macina] == 11 per macina 1
+[macina] == 12 per macina 2</t>
+  </si>
+  <si>
+    <t># P [len] 0x11 [macina] [movimento] [ck]
+# P [len] 0x11 [macina] [movimento] [ck]</t>
   </si>
 </sst>
 </file>
@@ -646,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +955,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -939,7 +966,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
@@ -954,6 +981,28 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Nuovi_comandi_CPU_GPU.xlsx
+++ b/DOC/Nuovi_comandi_CPU_GPU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Cleaning</t>
   </si>
@@ -306,6 +306,23 @@
   <si>
     <t># P [len] 0x11 [macina] [movimento] [ck]
 # P [len] 0x11 [macina] [movimento] [ck]</t>
+  </si>
+  <si>
+    <t>Test motore/mixer/acqua</t>
+  </si>
+  <si>
+    <t># P [len] 0x12 [sel_numero] [attuatore] [ck]
+# P [len] 0x12 [sel_numero] [attuatore] [ck]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU chiede a CPU di eseguire un test sull'attuatore [attuatore] della selezione [sel_numero].
+[attuatore] == 0 =&gt; intera ricetta in modalità TEST VEND
+[attuatore] 1-10 =&gt; motore prodotto 1-10
+[attuatore] == 11 =&gt; macina
+[attuatore] 21-30 =&gt; water1-10
+[attuatore] 31-40 =&gt; mixer 1-10
+Durante il test, lo stato di CPU diventa 21
+</t>
   </si>
 </sst>
 </file>
@@ -673,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1022,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="34" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
